--- a/Assignment 6/Q6_1_c.xlsx
+++ b/Assignment 6/Q6_1_c.xlsx
@@ -48,9 +48,6 @@
     <t>θ = π/22</t>
   </si>
   <si>
-    <t>Data for the Minimum value of function g(x)= f(Rtheta*x) where f(x) = max(x1,x2) using Coordinate Search</t>
-  </si>
-  <si>
     <r>
       <t>Starting point = (1,1) ,</t>
     </r>
@@ -63,8 +60,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>δ = 1</t>
+      <t>δ = 0.1</t>
     </r>
+  </si>
+  <si>
+    <t>Data for the Minimum value of function g(x)= f(Rtheta*x) where f(x) = max(|x1|,|x2|) using Coordinate Search</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -153,45 +153,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -226,6 +196,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i/>
@@ -247,6 +226,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i/>
@@ -268,6 +256,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i/>
@@ -289,6 +286,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i/>
@@ -306,9 +312,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -323,55 +326,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C6:E16" totalsRowShown="0" headerRowDxfId="23" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C6:E16" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="C6:E16"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="x1" dataDxfId="14"/>
-    <tableColumn id="2" name="x2" dataDxfId="13"/>
-    <tableColumn id="3" name="fmin" dataDxfId="12"/>
+    <tableColumn id="1" name="x1" dataDxfId="22"/>
+    <tableColumn id="2" name="x2" dataDxfId="21"/>
+    <tableColumn id="3" name="fmin" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="G6:I16" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="G6:I16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="G6:I16"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="x1" dataDxfId="11"/>
-    <tableColumn id="2" name="x2" dataDxfId="10"/>
-    <tableColumn id="3" name="fmin" dataDxfId="9"/>
+    <tableColumn id="1" name="x1" dataDxfId="17"/>
+    <tableColumn id="2" name="x2" dataDxfId="16"/>
+    <tableColumn id="3" name="fmin" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="K6:M16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="K6:M16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="K6:M16"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="x1" dataDxfId="8"/>
-    <tableColumn id="2" name="x2" dataDxfId="7"/>
-    <tableColumn id="3" name="fmin" dataDxfId="6"/>
+    <tableColumn id="1" name="x1" dataDxfId="12"/>
+    <tableColumn id="2" name="x2" dataDxfId="11"/>
+    <tableColumn id="3" name="fmin" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="O6:Q16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="O6:Q16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="O6:Q16"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="x1" dataDxfId="5"/>
-    <tableColumn id="2" name="x2" dataDxfId="4"/>
-    <tableColumn id="3" name="fmin" dataDxfId="3"/>
+    <tableColumn id="1" name="x1" dataDxfId="7"/>
+    <tableColumn id="2" name="x2" dataDxfId="6"/>
+    <tableColumn id="3" name="fmin" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="S6:U16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="S6:U16" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="S6:U16"/>
   <tableColumns count="3">
     <tableColumn id="1" name="x1" dataDxfId="2"/>
@@ -648,7 +651,7 @@
   <dimension ref="A2:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,12 +663,12 @@
   <sheetData>
     <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -765,50 +768,50 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E7" s="3">
-        <v>0.70710678118654802</v>
+        <v>1.3435028842544401</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I7" s="3">
-        <v>0.92387953251128696</v>
+        <v>1.2141750116252501</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3">
         <v>1</v>
       </c>
       <c r="L7" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M7" s="3">
-        <v>0.86602540378443904</v>
+        <v>1.2794228634059901</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3">
         <v>1</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.98078528040322999</v>
+        <v>1.0777970743790399</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3">
         <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="U7" s="3">
-        <v>0.98982144188093302</v>
+        <v>1.03315413596612</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -817,53 +820,53 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1.2727922061357899</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>1.1217870583741201</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>1.19282032302755</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>0.97971854633871303</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>0.93417199177803101</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -872,53 +875,53 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E9" s="3">
-        <v>-0.70710678118654802</v>
+        <v>1.20208152801713</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I9" s="3">
-        <v>-0.38268343236509</v>
+        <v>1.02939910512299</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M9" s="3">
-        <v>-0.5</v>
+        <v>1.10621778264911</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.195090322016128</v>
+        <v>0.88164001829839</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="U9" s="3">
-        <v>-0.142314838273285</v>
+        <v>0.89020105508963299</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -927,53 +930,53 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E10" s="3">
-        <v>-1.4142135623731</v>
+        <v>1.13137084989848</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
-        <v>-1</v>
+        <v>0.6</v>
       </c>
       <c r="I10" s="3">
-        <v>-0.54119610014619701</v>
+        <v>0.93701115187186201</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M10" s="3">
-        <v>-1</v>
+        <v>1.0196152422706599</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P10" s="3">
-        <v>-1</v>
+        <v>0.6</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.78569495838710202</v>
+        <v>0.86373108719355396</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="T10" s="3">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="U10" s="3">
-        <v>-0.84750660360764796</v>
+        <v>0.82095836376261</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -982,53 +985,53 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="3">
-        <v>-2.1213203435596402</v>
+        <v>1.0606601717798201</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="3">
-        <v>-1.4650756326574801</v>
+        <v>0.84462319862073298</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="M11" s="3">
-        <v>-1.2320508075688801</v>
+        <v>0.93301270189221897</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3">
-        <v>-2</v>
+        <v>0.9</v>
       </c>
       <c r="P11" s="3">
-        <v>-1</v>
+        <v>0.6</v>
       </c>
       <c r="Q11" s="3">
-        <v>-1.3709659244354899</v>
+        <v>0.76565255915323105</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3">
-        <v>-2</v>
+        <v>0.9</v>
       </c>
       <c r="T11" s="3">
-        <v>-1</v>
+        <v>0.6</v>
       </c>
       <c r="U11" s="3">
-        <v>-1.2744511184275</v>
+        <v>0.80545039472886804</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1037,53 +1040,53 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="3">
-        <v>-2.8284271247461898</v>
+        <v>0.98994949366116702</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="I12" s="3">
-        <v>-2.0719298296065598</v>
+        <v>0.770806159565251</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="L12" s="3">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="M12" s="3">
-        <v>-2.09807621135332</v>
+        <v>0.84641016151377602</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3">
-        <v>-2</v>
+        <v>0.8</v>
       </c>
       <c r="P12" s="3">
-        <v>-2</v>
+        <v>0.6</v>
       </c>
       <c r="Q12" s="3">
-        <v>-1.5713899167742</v>
+        <v>0.74454342585484101</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3">
-        <v>-2</v>
+        <v>0.8</v>
       </c>
       <c r="T12" s="3">
-        <v>-2</v>
+        <v>0.6</v>
       </c>
       <c r="U12" s="3">
-        <v>-1.6950132072152999</v>
+        <v>0.70774473574718799</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1092,53 +1095,53 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E13" s="3">
-        <v>-3.53553390593274</v>
+        <v>0.91923881554251197</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
-        <v>-4</v>
+        <v>0.9</v>
       </c>
       <c r="H13" s="3">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="I13" s="3">
-        <v>-2.4546132619716499</v>
+        <v>0.71396690213309599</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="M13" s="3">
-        <v>-2.8660254037844402</v>
+        <v>0.75980762113533196</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3">
-        <v>-3</v>
+        <v>0.8</v>
       </c>
       <c r="P13" s="3">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="Q13" s="3">
-        <v>-2.5468415268548501</v>
+        <v>0.68708306331451996</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3">
-        <v>-3</v>
+        <v>0.7</v>
       </c>
       <c r="T13" s="3">
-        <v>-2</v>
+        <v>0.6</v>
       </c>
       <c r="U13" s="3">
-        <v>-2.4065873985817201</v>
+        <v>0.69351325191985902</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1147,53 +1150,53 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="3">
-        <v>-4.2426406871192901</v>
+        <v>0.84852813742385702</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
-        <v>-4</v>
+        <v>0.8</v>
       </c>
       <c r="H14" s="3">
-        <v>-2</v>
+        <v>0.4</v>
       </c>
       <c r="I14" s="3">
-        <v>-2.9301512653149699</v>
+        <v>0.67569855889658703</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3">
-        <v>-5</v>
+        <v>0.9</v>
       </c>
       <c r="L14" s="3">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="M14" s="3">
-        <v>-3.3660254037844402</v>
+        <v>0.70980762113533202</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3">
-        <v>-4</v>
+        <v>0.7</v>
       </c>
       <c r="P14" s="3">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="Q14" s="3">
-        <v>-2.7419318488709701</v>
+        <v>0.62695586561290495</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3">
-        <v>-3</v>
+        <v>0.7</v>
       </c>
       <c r="T14" s="3">
-        <v>-3</v>
+        <v>0.5</v>
       </c>
       <c r="U14" s="3">
-        <v>-2.5425198108229399</v>
+        <v>0.62171759018001005</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1202,53 +1205,53 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E15" s="3">
-        <v>-4.94974746830583</v>
+        <v>0.77781745930520196</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <v>-5</v>
+        <v>0.8</v>
       </c>
       <c r="H15" s="3">
-        <v>-2</v>
+        <v>0.3</v>
       </c>
       <c r="I15" s="3">
-        <v>-3.7611762268480202</v>
+        <v>0.62429859629950302</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3">
-        <v>-6</v>
+        <v>0.9</v>
       </c>
       <c r="L15" s="3">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="M15" s="3">
-        <v>-3.8660254037844402</v>
+        <v>0.679422863405995</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3">
-        <v>-4</v>
+        <v>0.7</v>
       </c>
       <c r="P15" s="3">
-        <v>-3</v>
+        <v>0.4</v>
       </c>
       <c r="Q15" s="3">
-        <v>-3.33787015556454</v>
+        <v>0.60851356747580998</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3">
-        <v>-4</v>
+        <v>0.6</v>
       </c>
       <c r="T15" s="3">
-        <v>-3</v>
+        <v>0.5</v>
       </c>
       <c r="U15" s="3">
-        <v>-3.5323412527038802</v>
+        <v>0.58029962390443801</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1257,53 +1260,53 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
-        <v>-8</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.3877787807814501E-16</v>
       </c>
       <c r="E16" s="3">
-        <v>-5.6568542494923797</v>
+        <v>0.70710678118654802</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
-        <v>-6</v>
+        <v>0.7</v>
       </c>
       <c r="H16" s="3">
-        <v>-2</v>
+        <v>0.3</v>
       </c>
       <c r="I16" s="3">
-        <v>-4.1438596592131098</v>
+        <v>0.54504226240894904</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3">
-        <v>-6</v>
+        <v>0.8</v>
       </c>
       <c r="L16" s="3">
-        <v>-2</v>
+        <v>0.2</v>
       </c>
       <c r="M16" s="3">
-        <v>-4.1961524227066302</v>
+        <v>0.59282032302755105</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3">
-        <v>-5</v>
+        <v>0.6</v>
       </c>
       <c r="P16" s="3">
-        <v>-3</v>
+        <v>0.4</v>
       </c>
       <c r="Q16" s="3">
-        <v>-3.9178074512903298</v>
+        <v>0.51043503943548696</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3">
-        <v>-5</v>
+        <v>0.6</v>
       </c>
       <c r="T16" s="3">
-        <v>-3</v>
+        <v>0.4</v>
       </c>
       <c r="U16" s="3">
-        <v>-3.6810385170092199</v>
+        <v>0.53696692981924599</v>
       </c>
     </row>
   </sheetData>
